--- a/model/results/grey_ggpos_h2pos/v_emissions.xlsx
+++ b/model/results/grey_ggpos_h2pos/v_emissions.xlsx
@@ -781,19 +781,19 @@
         <v>2022</v>
       </c>
       <c r="B3" t="n">
-        <v>3071270.690049751</v>
+        <v>2779112.233333333</v>
       </c>
       <c r="C3" t="n">
-        <v>3071270.690049751</v>
+        <v>2779112.233333333</v>
       </c>
       <c r="D3" t="n">
-        <v>3071270.690049751</v>
+        <v>2670364.363333333</v>
       </c>
       <c r="E3" t="n">
-        <v>940065.7435323382</v>
+        <v>817354.8716666666</v>
       </c>
       <c r="F3" t="n">
-        <v>940065.7435323382</v>
+        <v>817354.8716666666</v>
       </c>
       <c r="G3" t="n">
         <v>65665.59999999999</v>
@@ -805,73 +805,73 @@
         <v>17617.6</v>
       </c>
       <c r="J3" t="n">
-        <v>410409.9999999999</v>
+        <v>339594.1568627451</v>
       </c>
       <c r="K3" t="n">
-        <v>65665.59999999999</v>
+        <v>54335.06509803923</v>
       </c>
       <c r="L3" t="n">
-        <v>32832.8</v>
+        <v>27167.53254901962</v>
       </c>
       <c r="M3" t="n">
-        <v>53353.29999999999</v>
+        <v>44147.24039215686</v>
       </c>
       <c r="N3" t="n">
-        <v>36936.89999999999</v>
+        <v>30563.47411764706</v>
       </c>
       <c r="O3" t="n">
-        <v>184684.5</v>
+        <v>152817.3705882353</v>
       </c>
       <c r="P3" t="n">
-        <v>328327.9999999999</v>
+        <v>271675.3254901961</v>
       </c>
       <c r="Q3" t="n">
-        <v>123123</v>
+        <v>101878.2470588235</v>
       </c>
       <c r="R3" t="n">
-        <v>41040.99999999999</v>
+        <v>33959.41568627451</v>
       </c>
       <c r="S3" t="n">
-        <v>213413.2</v>
+        <v>176588.9615686274</v>
       </c>
       <c r="T3" t="n">
-        <v>4104.099999999999</v>
+        <v>3395.941568627452</v>
       </c>
       <c r="U3" t="n">
-        <v>110810.7</v>
+        <v>91690.4223529412</v>
       </c>
       <c r="V3" t="n">
-        <v>82081.99999999999</v>
+        <v>67918.83137254902</v>
       </c>
       <c r="W3" t="n">
-        <v>28728.69999999999</v>
+        <v>23771.59098039216</v>
       </c>
       <c r="X3" t="n">
-        <v>180580.4</v>
+        <v>149421.4290196079</v>
       </c>
       <c r="Y3" t="n">
-        <v>151851.7</v>
+        <v>125649.8380392157</v>
       </c>
       <c r="Z3" t="n">
-        <v>82081.99999999999</v>
+        <v>67918.83137254902</v>
       </c>
       <c r="AA3" t="n">
-        <v>410.4099999999999</v>
+        <v>339.5941568627451</v>
       </c>
       <c r="AB3" t="n">
-        <v>2052.05</v>
+        <v>1697.970784313726</v>
       </c>
       <c r="AC3" t="n">
-        <v>49249.19999999999</v>
+        <v>40751.29882352941</v>
       </c>
       <c r="AD3" t="n">
-        <v>12312.3</v>
+        <v>10187.82470588235</v>
       </c>
       <c r="AE3" t="n">
-        <v>110810.7</v>
+        <v>91690.4223529412</v>
       </c>
       <c r="AF3" t="n">
-        <v>24624.59999999999</v>
+        <v>20375.64941176471</v>
       </c>
       <c r="AG3" t="n">
         <v>312311.9999999999</v>
@@ -912,19 +912,19 @@
         <v>2023</v>
       </c>
       <c r="B4" t="n">
-        <v>3074341.9607398</v>
+        <v>2781891.345566665</v>
       </c>
       <c r="C4" t="n">
-        <v>3074341.9607398</v>
+        <v>2781891.345566665</v>
       </c>
       <c r="D4" t="n">
-        <v>3074341.9607398</v>
+        <v>2673034.727696666</v>
       </c>
       <c r="E4" t="n">
-        <v>941005.8092758703</v>
+        <v>818172.2265383331</v>
       </c>
       <c r="F4" t="n">
-        <v>941005.8092758703</v>
+        <v>818172.2265383331</v>
       </c>
       <c r="G4" t="n">
         <v>65731.26559999998</v>
@@ -936,73 +936,73 @@
         <v>17635.2176</v>
       </c>
       <c r="J4" t="n">
-        <v>410820.4099999999</v>
+        <v>339933.7510196078</v>
       </c>
       <c r="K4" t="n">
-        <v>65731.26559999997</v>
+        <v>54389.40016313726</v>
       </c>
       <c r="L4" t="n">
-        <v>32865.63279999998</v>
+        <v>27194.70008156863</v>
       </c>
       <c r="M4" t="n">
-        <v>53406.65329999998</v>
+        <v>44191.38763254901</v>
       </c>
       <c r="N4" t="n">
-        <v>36973.83689999999</v>
+        <v>30594.0375917647</v>
       </c>
       <c r="O4" t="n">
-        <v>184869.1844999999</v>
+        <v>152970.1879588235</v>
       </c>
       <c r="P4" t="n">
-        <v>328656.3279999999</v>
+        <v>271947.0008156862</v>
       </c>
       <c r="Q4" t="n">
-        <v>123246.123</v>
+        <v>101980.1253058824</v>
       </c>
       <c r="R4" t="n">
-        <v>41082.04099999999</v>
+        <v>33993.37510196078</v>
       </c>
       <c r="S4" t="n">
-        <v>213626.6131999999</v>
+        <v>176765.5505301961</v>
       </c>
       <c r="T4" t="n">
-        <v>4108.204099999998</v>
+        <v>3399.337510196079</v>
       </c>
       <c r="U4" t="n">
-        <v>110921.5107</v>
+        <v>91782.11277529412</v>
       </c>
       <c r="V4" t="n">
-        <v>82164.08199999998</v>
+        <v>67986.75020392156</v>
       </c>
       <c r="W4" t="n">
-        <v>28757.42869999999</v>
+        <v>23795.36257137255</v>
       </c>
       <c r="X4" t="n">
-        <v>180760.9803999999</v>
+        <v>149570.8504486275</v>
       </c>
       <c r="Y4" t="n">
-        <v>152003.5517</v>
+        <v>125775.4878772549</v>
       </c>
       <c r="Z4" t="n">
-        <v>82164.08199999998</v>
+        <v>67986.75020392156</v>
       </c>
       <c r="AA4" t="n">
-        <v>410.8204099999999</v>
+        <v>339.9337510196078</v>
       </c>
       <c r="AB4" t="n">
-        <v>2054.102049999999</v>
+        <v>1699.668755098039</v>
       </c>
       <c r="AC4" t="n">
-        <v>49298.44919999998</v>
+        <v>40792.05012235294</v>
       </c>
       <c r="AD4" t="n">
-        <v>12324.6123</v>
+        <v>10198.01253058823</v>
       </c>
       <c r="AE4" t="n">
-        <v>110921.5107</v>
+        <v>91782.11277529412</v>
       </c>
       <c r="AF4" t="n">
-        <v>24649.22459999999</v>
+        <v>20396.02506117647</v>
       </c>
       <c r="AG4" t="n">
         <v>296993.0963999999</v>
@@ -1043,19 +1043,19 @@
         <v>2024</v>
       </c>
       <c r="B5" t="n">
-        <v>3077416.30270054</v>
+        <v>2784673.236912232</v>
       </c>
       <c r="C5" t="n">
-        <v>3077416.30270054</v>
+        <v>2784673.236912232</v>
       </c>
       <c r="D5" t="n">
-        <v>3077416.30270054</v>
+        <v>2675707.762424362</v>
       </c>
       <c r="E5" t="n">
-        <v>941946.8150851461</v>
+        <v>818990.3987648713</v>
       </c>
       <c r="F5" t="n">
-        <v>941946.8150851461</v>
+        <v>818990.3987648713</v>
       </c>
       <c r="G5" t="n">
         <v>65796.99686559998</v>
@@ -1067,73 +1067,73 @@
         <v>17652.8528176</v>
       </c>
       <c r="J5" t="n">
-        <v>411231.2304099998</v>
+        <v>340273.6847706274</v>
       </c>
       <c r="K5" t="n">
-        <v>65796.99686559997</v>
+        <v>54443.78956330039</v>
       </c>
       <c r="L5" t="n">
-        <v>32898.49843279998</v>
+        <v>27221.8947816502</v>
       </c>
       <c r="M5" t="n">
-        <v>53460.05995329998</v>
+        <v>44235.57902018156</v>
       </c>
       <c r="N5" t="n">
-        <v>37010.81073689998</v>
+        <v>30624.63162935647</v>
       </c>
       <c r="O5" t="n">
-        <v>185054.0536844999</v>
+        <v>153123.1581467823</v>
       </c>
       <c r="P5" t="n">
-        <v>328984.9843279999</v>
+        <v>272218.9478165019</v>
       </c>
       <c r="Q5" t="n">
-        <v>123369.369123</v>
+        <v>102082.1054311882</v>
       </c>
       <c r="R5" t="n">
-        <v>41123.12304099999</v>
+        <v>34027.36847706274</v>
       </c>
       <c r="S5" t="n">
-        <v>213840.2398131999</v>
+        <v>176942.3160807262</v>
       </c>
       <c r="T5" t="n">
-        <v>4112.312304099998</v>
+        <v>3402.736847706275</v>
       </c>
       <c r="U5" t="n">
-        <v>111032.4322106999</v>
+        <v>91873.89488806941</v>
       </c>
       <c r="V5" t="n">
-        <v>82246.24608199998</v>
+        <v>68054.73695412547</v>
       </c>
       <c r="W5" t="n">
-        <v>28786.18612869999</v>
+        <v>23819.15793394393</v>
       </c>
       <c r="X5" t="n">
-        <v>180941.7413803999</v>
+        <v>149720.4212990761</v>
       </c>
       <c r="Y5" t="n">
-        <v>152155.5552517</v>
+        <v>125901.2633651321</v>
       </c>
       <c r="Z5" t="n">
-        <v>82246.24608199998</v>
+        <v>68054.73695412547</v>
       </c>
       <c r="AA5" t="n">
-        <v>411.2312304099999</v>
+        <v>340.2736847706274</v>
       </c>
       <c r="AB5" t="n">
-        <v>2056.156152049999</v>
+        <v>1701.368423853137</v>
       </c>
       <c r="AC5" t="n">
-        <v>49347.74764919998</v>
+        <v>40832.84217247528</v>
       </c>
       <c r="AD5" t="n">
-        <v>12336.9369123</v>
+        <v>10208.21054311882</v>
       </c>
       <c r="AE5" t="n">
-        <v>111032.4322106999</v>
+        <v>91873.89488806941</v>
       </c>
       <c r="AF5" t="n">
-        <v>24673.87382459999</v>
+        <v>20416.42108623764</v>
       </c>
       <c r="AG5" t="n">
         <v>297290.0894963999</v>
@@ -1174,19 +1174,19 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
-        <v>2835935.439021303</v>
+        <v>1527042.159473008</v>
       </c>
       <c r="C6" t="n">
-        <v>2835935.439021303</v>
+        <v>1527042.159473009</v>
       </c>
       <c r="D6" t="n">
-        <v>2835935.439021303</v>
+        <v>787759.8441725839</v>
       </c>
       <c r="E6" t="n">
-        <v>868033.470879144</v>
+        <v>241120.4085775398</v>
       </c>
       <c r="F6" t="n">
-        <v>868033.470879144</v>
+        <v>241120.40857754</v>
       </c>
       <c r="G6" t="n">
         <v>65862.79386246557</v>
@@ -1198,73 +1198,73 @@
         <v>17670.50567041759</v>
       </c>
       <c r="J6" t="n">
-        <v>246985.4769842458</v>
+        <v>175956.9737992341</v>
       </c>
       <c r="K6" t="n">
-        <v>39517.67631747934</v>
+        <v>28153.11580787746</v>
       </c>
       <c r="L6" t="n">
-        <v>19758.83815873967</v>
+        <v>14076.55790393873</v>
       </c>
       <c r="M6" t="n">
-        <v>32108.11200795196</v>
+        <v>22874.40659390042</v>
       </c>
       <c r="N6" t="n">
-        <v>22228.69292858213</v>
+        <v>15836.12764193107</v>
       </c>
       <c r="O6" t="n">
-        <v>111143.4646429106</v>
+        <v>79180.63820965531</v>
       </c>
       <c r="P6" t="n">
-        <v>197588.3815873967</v>
+        <v>140765.5790393872</v>
       </c>
       <c r="Q6" t="n">
-        <v>74095.64309527376</v>
+        <v>52787.09213977024</v>
       </c>
       <c r="R6" t="n">
-        <v>24698.54769842459</v>
+        <v>17595.6973799234</v>
       </c>
       <c r="S6" t="n">
-        <v>128432.4480318078</v>
+        <v>91497.62637560169</v>
       </c>
       <c r="T6" t="n">
-        <v>2469.854769842459</v>
+        <v>1759.569737992341</v>
       </c>
       <c r="U6" t="n">
-        <v>66686.07878574637</v>
+        <v>47508.3829257932</v>
       </c>
       <c r="V6" t="n">
-        <v>49397.09539684917</v>
+        <v>35191.39475984681</v>
       </c>
       <c r="W6" t="n">
-        <v>17288.98338889721</v>
+        <v>12316.98816594639</v>
       </c>
       <c r="X6" t="n">
-        <v>108673.6098730682</v>
+        <v>77421.06847166298</v>
       </c>
       <c r="Y6" t="n">
-        <v>91384.62648417096</v>
+        <v>65104.08030571659</v>
       </c>
       <c r="Z6" t="n">
-        <v>49397.09539684917</v>
+        <v>35191.39475984681</v>
       </c>
       <c r="AA6" t="n">
-        <v>246.9854769842458</v>
+        <v>175.956973799234</v>
       </c>
       <c r="AB6" t="n">
-        <v>1234.927384921229</v>
+        <v>879.7848689961705</v>
       </c>
       <c r="AC6" t="n">
-        <v>29638.2572381095</v>
+        <v>21114.83685590808</v>
       </c>
       <c r="AD6" t="n">
-        <v>7409.564309527375</v>
+        <v>5278.709213977021</v>
       </c>
       <c r="AE6" t="n">
-        <v>66686.07878574637</v>
+        <v>47508.3829257932</v>
       </c>
       <c r="AF6" t="n">
-        <v>14819.12861905475</v>
+        <v>10557.41842795404</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
@@ -1305,19 +1305,19 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>2838771.374460324</v>
+        <v>1528569.201632481</v>
       </c>
       <c r="C7" t="n">
-        <v>2838771.374460324</v>
+        <v>1528569.201632482</v>
       </c>
       <c r="D7" t="n">
-        <v>2838771.374460324</v>
+        <v>788547.6040167564</v>
       </c>
       <c r="E7" t="n">
-        <v>868901.504350023</v>
+        <v>241361.5289861174</v>
       </c>
       <c r="F7" t="n">
-        <v>868901.504350023</v>
+        <v>241361.5289861175</v>
       </c>
       <c r="G7" t="n">
         <v>65928.65665632802</v>
@@ -1329,73 +1329,73 @@
         <v>17688.17617608801</v>
       </c>
       <c r="J7" t="n">
-        <v>247232.4624612301</v>
+        <v>176132.9307730333</v>
       </c>
       <c r="K7" t="n">
-        <v>39557.19399379681</v>
+        <v>28181.26892368533</v>
       </c>
       <c r="L7" t="n">
-        <v>19778.59699689841</v>
+        <v>14090.63446184266</v>
       </c>
       <c r="M7" t="n">
-        <v>32140.22011995991</v>
+        <v>22897.28100049432</v>
       </c>
       <c r="N7" t="n">
-        <v>22250.9216215107</v>
+        <v>15851.96376957299</v>
       </c>
       <c r="O7" t="n">
-        <v>111254.6081075535</v>
+        <v>79259.81884786497</v>
       </c>
       <c r="P7" t="n">
-        <v>197785.969968984</v>
+        <v>140906.3446184266</v>
       </c>
       <c r="Q7" t="n">
-        <v>74169.73873836901</v>
+        <v>52839.87923191</v>
       </c>
       <c r="R7" t="n">
-        <v>24723.24624612301</v>
+        <v>17613.29307730333</v>
       </c>
       <c r="S7" t="n">
-        <v>128560.8804798396</v>
+        <v>91589.12400197727</v>
       </c>
       <c r="T7" t="n">
-        <v>2472.324624612301</v>
+        <v>1761.329307730333</v>
       </c>
       <c r="U7" t="n">
-        <v>66752.76486453212</v>
+        <v>47555.89130871899</v>
       </c>
       <c r="V7" t="n">
-        <v>49446.49249224601</v>
+        <v>35226.58615460665</v>
       </c>
       <c r="W7" t="n">
-        <v>17306.2723722861</v>
+        <v>12329.30515411233</v>
       </c>
       <c r="X7" t="n">
-        <v>108782.2834829412</v>
+        <v>77498.48954013463</v>
       </c>
       <c r="Y7" t="n">
-        <v>91476.01111065512</v>
+        <v>65169.1843860223</v>
       </c>
       <c r="Z7" t="n">
-        <v>49446.49249224601</v>
+        <v>35226.58615460665</v>
       </c>
       <c r="AA7" t="n">
-        <v>247.2324624612301</v>
+        <v>176.1329307730332</v>
       </c>
       <c r="AB7" t="n">
-        <v>1236.16231230615</v>
+        <v>880.6646538651665</v>
       </c>
       <c r="AC7" t="n">
-        <v>29667.89549534761</v>
+        <v>21135.95169276399</v>
       </c>
       <c r="AD7" t="n">
-        <v>7416.973873836901</v>
+        <v>5283.987923190997</v>
       </c>
       <c r="AE7" t="n">
-        <v>66752.76486453212</v>
+        <v>47555.89130871899</v>
       </c>
       <c r="AF7" t="n">
-        <v>14833.9477476738</v>
+        <v>10567.97584638199</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -1436,19 +1436,19 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>2841610.145834784</v>
+        <v>267159.9282408759</v>
       </c>
       <c r="C8" t="n">
-        <v>2841610.145834784</v>
+        <v>267159.9282408765</v>
       </c>
       <c r="D8" t="n">
-        <v>2841610.145834784</v>
+        <v>789336.1516207731</v>
       </c>
       <c r="E8" t="n">
-        <v>869770.405854373</v>
+        <v>241602.8905151035</v>
       </c>
       <c r="F8" t="n">
-        <v>869770.405854373</v>
+        <v>241602.8905151036</v>
       </c>
       <c r="G8" t="n">
         <v>65994.58531298436</v>
@@ -1460,73 +1460,73 @@
         <v>17705.8643522641</v>
       </c>
       <c r="J8" t="n">
-        <v>247479.6949236912</v>
+        <v>176309.0637038063</v>
       </c>
       <c r="K8" t="n">
-        <v>39596.75118779061</v>
+        <v>28209.45019260902</v>
       </c>
       <c r="L8" t="n">
-        <v>19798.3755938953</v>
+        <v>14104.72509630451</v>
       </c>
       <c r="M8" t="n">
-        <v>32172.36034007986</v>
+        <v>22920.17828149481</v>
       </c>
       <c r="N8" t="n">
-        <v>22273.17254313222</v>
+        <v>15867.81573334257</v>
       </c>
       <c r="O8" t="n">
-        <v>111365.8627156611</v>
+        <v>79339.07866671283</v>
       </c>
       <c r="P8" t="n">
-        <v>197983.755938953</v>
+        <v>141047.250963045</v>
       </c>
       <c r="Q8" t="n">
-        <v>74243.90847710738</v>
+        <v>52892.71911114191</v>
       </c>
       <c r="R8" t="n">
-        <v>24747.96949236913</v>
+        <v>17630.90637038063</v>
       </c>
       <c r="S8" t="n">
-        <v>128689.4413603195</v>
+        <v>91680.71312597925</v>
       </c>
       <c r="T8" t="n">
-        <v>2474.796949236913</v>
+        <v>1763.090637038064</v>
       </c>
       <c r="U8" t="n">
-        <v>66819.51762939665</v>
+        <v>47603.44720002772</v>
       </c>
       <c r="V8" t="n">
-        <v>49495.93898473826</v>
+        <v>35261.81274076126</v>
       </c>
       <c r="W8" t="n">
-        <v>17323.57864465839</v>
+        <v>12341.63445926645</v>
       </c>
       <c r="X8" t="n">
-        <v>108891.0657664242</v>
+        <v>77575.98802967476</v>
       </c>
       <c r="Y8" t="n">
-        <v>91567.48712176576</v>
+        <v>65234.35357040832</v>
       </c>
       <c r="Z8" t="n">
-        <v>49495.93898473826</v>
+        <v>35261.81274076126</v>
       </c>
       <c r="AA8" t="n">
-        <v>247.4796949236913</v>
+        <v>176.3090637038062</v>
       </c>
       <c r="AB8" t="n">
-        <v>1237.398474618456</v>
+        <v>881.5453185190318</v>
       </c>
       <c r="AC8" t="n">
-        <v>29697.56339084296</v>
+        <v>21157.08764445675</v>
       </c>
       <c r="AD8" t="n">
-        <v>7424.390847710739</v>
+        <v>5289.271911114188</v>
       </c>
       <c r="AE8" t="n">
-        <v>66819.51762939665</v>
+        <v>47603.44720002772</v>
       </c>
       <c r="AF8" t="n">
-        <v>14848.78169542148</v>
+        <v>10578.54382222838</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
@@ -1567,19 +1567,19 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
-        <v>2844451.755980618</v>
+        <v>267427.0881691168</v>
       </c>
       <c r="C9" t="n">
-        <v>2844451.755980618</v>
+        <v>267427.0881691173</v>
       </c>
       <c r="D9" t="n">
-        <v>2844451.755980618</v>
+        <v>790125.4877723937</v>
       </c>
       <c r="E9" t="n">
-        <v>870640.1762602272</v>
+        <v>241844.4934056185</v>
       </c>
       <c r="F9" t="n">
-        <v>870640.1762602272</v>
+        <v>241844.4934056186</v>
       </c>
       <c r="G9" t="n">
         <v>66060.57989829732</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1.39752242422217e-14</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -1698,19 +1698,19 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>2847296.207736599</v>
+        <v>267694.5152572858</v>
       </c>
       <c r="C10" t="n">
-        <v>2847296.207736599</v>
+        <v>267694.5152572864</v>
       </c>
       <c r="D10" t="n">
-        <v>2847296.207736599</v>
+        <v>790915.6132601661</v>
       </c>
       <c r="E10" t="n">
-        <v>871510.8164364875</v>
+        <v>242086.3378990242</v>
       </c>
       <c r="F10" t="n">
-        <v>871510.8164364875</v>
+        <v>242086.3378990243</v>
       </c>
       <c r="G10" t="n">
         <v>66126.64047819562</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1.398919946646392e-14</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -1829,19 +1829,19 @@
         <v>2030</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>267962.2097725431</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>267962.2097725436</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>791706.5288734263</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>242328.4242369232</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>242328.4242369233</v>
       </c>
       <c r="G11" t="n">
         <v>66192.7671186738</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1.400318866593038e-14</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -1960,19 +1960,19 @@
         <v>2031</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>268230.1719823154</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>268230.1719823162</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>792498.2354022998</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>242570.7526611601</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>242570.7526611602</v>
       </c>
       <c r="G12" t="n">
         <v>66258.95988579249</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1.401719185459631e-14</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
@@ -2091,19 +2091,19 @@
         <v>2032</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>268498.4021542983</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>268498.4021542983</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>793290.7336377017</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>242813.3234138213</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>242813.3234138214</v>
       </c>
       <c r="G13" t="n">
         <v>66325.21884567825</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1.40312090464509e-14</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -2222,19 +2222,19 @@
         <v>2033</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>268766.9005564526</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>268766.9005564526</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>794084.0243713392</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>243056.1367372351</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>243056.1367372352</v>
       </c>
       <c r="G14" t="n">
         <v>66391.54406452393</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1.404524025549735e-14</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -2353,19 +2353,19 @@
         <v>2034</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>269035.667457009</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>269035.667457009</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>794878.1083957107</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>243299.1928739723</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>243299.1928739723</v>
       </c>
       <c r="G15" t="n">
         <v>66457.93560858845</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1.405928549575285e-14</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>2035</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>269304.703124466</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>269304.7031244662</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>795672.9865041063</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>243542.4920668462</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>243542.4920668463</v>
       </c>
       <c r="G16" t="n">
         <v>66524.39354419702</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1.40733447812486e-14</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -2615,13 +2615,13 @@
         <v>2036</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>269574.0078275907</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>269574.0078275907</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>269574.0078275914</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1.408741812602985e-14</v>
       </c>
       <c r="AB17" t="n">
         <v>0</v>
@@ -2746,13 +2746,13 @@
         <v>2037</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>269843.5818354182</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>269843.5818354183</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>269843.5818354187</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1.410150554415588e-14</v>
       </c>
       <c r="AB18" t="n">
         <v>0</v>
@@ -2877,13 +2877,13 @@
         <v>2038</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>270113.4254172536</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>270113.4254172536</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>270113.4254172536</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1.411560704970003e-14</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
@@ -3008,13 +3008,13 @@
         <v>2039</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>270383.5388426708</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>270383.5388426708</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>270383.5388426674</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1.412972265674973e-14</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -3139,13 +3139,13 @@
         <v>2040</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>270653.9223815135</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>270653.9223815138</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>270653.9223815139</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1.414385237940648e-14</v>
       </c>
       <c r="AB21" t="n">
         <v>0</v>
